--- a/WordStudy/단어표.xlsx
+++ b/WordStudy/단어표.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>제 1과</t>
   </si>
@@ -133,66 +133,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>o</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>l</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NCP?EOIEPENLSAC-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>r</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>LODOLOD?R</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>t</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>?TITHSHAT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>w</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>HWOAWHTIT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>k</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TSMKHONAM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -238,6 +194,54 @@
   </si>
   <si>
     <t>CLOSE_(OPEN)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OCLEPONSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OD??TWE?IPNSSLEA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?U?NAPDST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RGOELOTAK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOUTH_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MELON_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIKE_BREAD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPEN_YOUR_BOOK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLOSE_THE_DOOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RICE_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MILK_JUICE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -739,10 +743,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J16"/>
+  <dimension ref="B1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -763,7 +767,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
         <v>28</v>
@@ -774,10 +778,10 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
@@ -785,10 +789,10 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.3">
@@ -796,92 +800,60 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>29</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C6" s="1">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>31</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C7" s="1">
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>34</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C8" s="1">
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="E8" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>32</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="G9" s="3"/>
@@ -904,7 +876,10 @@
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
-        <v>55</v>
+        <v>44</v>
+      </c>
+      <c r="E13" t="s">
+        <v>45</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -914,18 +889,67 @@
       <c r="D14" t="s">
         <v>27</v>
       </c>
+      <c r="E14" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
         <v>26</v>
       </c>
+      <c r="E15" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
         <v>54</v>
       </c>
-      <c r="D16" t="s">
-        <v>53</v>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D26" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/WordStudy/단어표.xlsx
+++ b/WordStudy/단어표.xlsx
@@ -213,10 +213,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MOUTH_</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MELON_</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -242,6 +238,10 @@
   </si>
   <si>
     <t>MILK_JUICE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOUTH_(NOSE)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -746,7 +746,7 @@
   <dimension ref="B1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -914,42 +914,42 @@
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/WordStudy/단어표.xlsx
+++ b/WordStudy/단어표.xlsx
@@ -745,8 +745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/WordStudy/단어표.xlsx
+++ b/WordStudy/단어표.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="69">
   <si>
     <t>제 1과</t>
   </si>
@@ -100,35 +100,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">close, down, great, look, mouth, okay, open, sit, stand, up, on, please, melon, mouth, it, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>outh, elon, tand</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3과</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>stand, up</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sit, down, please</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AIPBNKOOO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -193,22 +168,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CLOSE_(OPEN)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>OCLEPONSE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>OD??TWE?IPNSSLEA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>?U?NAPDST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RGOELOTAK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -241,7 +204,79 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MOUTH_(NOSE)</t>
+    <t>CLOSE_OPEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIT_DOWN_PLEASE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STAND_UP_--</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OD--TWE-IPNSSLEA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-U-NAPDST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOUTH_NOSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ESNUOOMSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">close, down, great, look, mouth, okay, open, sit, stand, up, on, please, melon, mouth, it, </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPENY-U-O-RBOOK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLOET-S--HERDOO-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -249,7 +284,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,14 +297,6 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -311,7 +338,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -322,6 +349,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -339,6 +369,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>113008</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>284012</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>94146</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7400925" y="532108"/>
+          <a:ext cx="7561112" cy="4800788"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -607,7 +680,7 @@
   <dimension ref="A1:A35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -642,7 +715,7 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
@@ -745,8 +818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -767,10 +840,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.3">
@@ -778,10 +851,10 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
@@ -789,10 +862,10 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.3">
@@ -800,29 +873,41 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C6" s="1">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+      <c r="I6" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
@@ -830,30 +915,42 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="H7" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
+      <c r="J7" s="2" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C8" s="1">
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="G9" s="3"/>
@@ -868,7 +965,7 @@
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -876,10 +973,10 @@
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -887,74 +984,84 @@
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="E14" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" t="s">
-        <v>47</v>
+        <v>52</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
         <v>43</v>
       </c>
-      <c r="D16" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" t="s">
+    </row>
+    <row r="23" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D18" t="s">
+    <row r="26" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D26" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D19" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D20" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D23" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D24" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D25" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D26" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/WordStudy/단어표.xlsx
+++ b/WordStudy/단어표.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="71">
   <si>
     <t>제 1과</t>
   </si>
@@ -196,10 +196,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RICE_</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MILK_JUICE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -277,6 +273,18 @@
   </si>
   <si>
     <t>CLOET-S--HERDOO-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RICE_CAKE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DO_YOU_LIKE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I_LIKE_JAM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -715,7 +723,7 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
@@ -816,10 +824,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J26"/>
+  <dimension ref="B1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -879,16 +887,16 @@
         <v>28</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
@@ -902,11 +910,11 @@
         <v>29</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J6" s="2"/>
     </row>
@@ -922,11 +930,11 @@
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
@@ -940,16 +948,16 @@
         <v>38</v>
       </c>
       <c r="G8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
@@ -973,7 +981,7 @@
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E13" t="s">
         <v>41</v>
@@ -984,18 +992,18 @@
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.3">
@@ -1011,10 +1019,10 @@
     </row>
     <row r="17" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="4:5" x14ac:dyDescent="0.3">
@@ -1022,7 +1030,7 @@
         <v>46</v>
       </c>
       <c r="E18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="4:5" x14ac:dyDescent="0.3">
@@ -1030,7 +1038,7 @@
         <v>47</v>
       </c>
       <c r="E19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="4:5" x14ac:dyDescent="0.3">
@@ -1050,12 +1058,22 @@
     </row>
     <row r="25" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
